--- a/3.xlsx
+++ b/3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdelaziz\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDCD95C-AE61-456B-8288-91C4AFB1F89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DAC200B-DD67-4D37-B928-8AAE18D0138D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="31">
   <si>
     <t>Number</t>
   </si>
@@ -91,6 +91,33 @@
   </si>
   <si>
     <t>هذا هو وصف العنصر 3.</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/4.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/5.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/6.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/7.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/8.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/9.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/10.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/11.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/12.jpeg</t>
   </si>
 </sst>
 </file>
@@ -450,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98041684-60AD-4B6B-B652-1A806A9CDDBF}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -560,11 +587,227 @@
         <v>21</v>
       </c>
     </row>
+    <row r="5" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="4">
+        <v>15</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="4">
+        <v>20</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="4">
+        <v>10</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="4">
+        <v>15</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="4">
+        <v>20</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="4">
+        <v>10</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="4">
+        <v>15</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="4">
+        <v>20</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{6C3B1275-2E37-442F-87E3-FE9BF42ED61B}"/>
     <hyperlink ref="E4" r:id="rId2" xr:uid="{3FF6BC07-6722-42BB-A1AA-570A59F7C416}"/>
+    <hyperlink ref="E6" r:id="rId3" xr:uid="{B7A6D708-20DA-4BBB-A4A1-7A08E1BAE5F9}"/>
+    <hyperlink ref="E7" r:id="rId4" xr:uid="{BB91DB1B-89AF-4995-A924-FB34ED96E69D}"/>
+    <hyperlink ref="E9" r:id="rId5" xr:uid="{0A4AC47A-7AD2-49AE-863A-4A08382F790C}"/>
+    <hyperlink ref="E10" r:id="rId6" xr:uid="{F927C814-C6AF-454C-8866-9DA863F0B963}"/>
+    <hyperlink ref="E12" r:id="rId7" xr:uid="{BAFF68CB-6038-4A7F-9D31-6852DE4694CB}"/>
+    <hyperlink ref="E13" r:id="rId8" xr:uid="{E5A619AE-7EB5-4860-AAE1-3BAE72F104AB}"/>
+    <hyperlink ref="E5" r:id="rId9" xr:uid="{025DB186-CA81-4865-BD41-D20B4F2A1FBA}"/>
+    <hyperlink ref="E8" r:id="rId10" xr:uid="{7ECBA6B3-C163-4CB0-87D3-0A40C84D8FF8}"/>
+    <hyperlink ref="E11" r:id="rId11" xr:uid="{635F489A-8046-47D2-8151-738FB7DF31BB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3.xlsx
+++ b/3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdelaziz\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB968F7-22B0-482D-952D-47A6B247C0CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0156D62A-490B-4027-90AA-FBF8154C810B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="641">
   <si>
     <t>Number</t>
   </si>
@@ -519,9 +519,6 @@
     <t>لوحة فنية مغربي مربع امرأة مع جرة اطار ذهبي و احمر</t>
   </si>
   <si>
-    <t>لوحة فنية كغربي سوق بسكاليت</t>
-  </si>
-  <si>
     <t>لوحة فنية جسم اطار اسود مع فضي</t>
   </si>
   <si>
@@ -669,9 +666,6 @@
     <t>اباريق</t>
   </si>
   <si>
-    <t>طقومة</t>
-  </si>
-  <si>
     <t>شمعدانيات</t>
   </si>
   <si>
@@ -1317,13 +1311,643 @@
     <t>Opalite Blue Graffiti</t>
   </si>
   <si>
-    <t>Limoges French Porcelain Plates</t>
-  </si>
-  <si>
-    <t>Limoges French Blue Box</t>
-  </si>
-  <si>
-    <t>Opalite Vases White</t>
+    <t>Sermats</t>
+  </si>
+  <si>
+    <t>Paintings</t>
+  </si>
+  <si>
+    <t>Models</t>
+  </si>
+  <si>
+    <t>Graphics</t>
+  </si>
+  <si>
+    <t>Boxes</t>
+  </si>
+  <si>
+    <t>Hookahs</t>
+  </si>
+  <si>
+    <t>Pitchers</t>
+  </si>
+  <si>
+    <t>Set</t>
+  </si>
+  <si>
+    <t>Candlesticks</t>
+  </si>
+  <si>
+    <t>Parvatania</t>
+  </si>
+  <si>
+    <t>طقوم</t>
+  </si>
+  <si>
+    <t>Boats</t>
+  </si>
+  <si>
+    <t>Ceramats</t>
+  </si>
+  <si>
+    <t>Frames</t>
+  </si>
+  <si>
+    <t>Consuls</t>
+  </si>
+  <si>
+    <t>Lanterns</t>
+  </si>
+  <si>
+    <t>Cup</t>
+  </si>
+  <si>
+    <t>Consul</t>
+  </si>
+  <si>
+    <t>Cabinets</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Perfumes</t>
+  </si>
+  <si>
+    <t>Eggs</t>
+  </si>
+  <si>
+    <t>Chairs</t>
+  </si>
+  <si>
+    <t>Desks</t>
+  </si>
+  <si>
+    <t>Carpets</t>
+  </si>
+  <si>
+    <t>Tables</t>
+  </si>
+  <si>
+    <t>Columns</t>
+  </si>
+  <si>
+    <t>Mirrors</t>
+  </si>
+  <si>
+    <t>Sprinklers</t>
+  </si>
+  <si>
+    <t>طقم</t>
+  </si>
+  <si>
+    <t>Cases</t>
+  </si>
+  <si>
+    <t>Panels</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Air Fresheners</t>
+  </si>
+  <si>
+    <t>Box</t>
+  </si>
+  <si>
+    <t>Chandeliers</t>
+  </si>
+  <si>
+    <t>Samovars</t>
+  </si>
+  <si>
+    <t>Prayers and necklaces</t>
+  </si>
+  <si>
+    <t>French Limoges Porcelain Plates</t>
+  </si>
+  <si>
+    <t>French Limoges Blue Box</t>
+  </si>
+  <si>
+    <t>White Opalite Vases</t>
+  </si>
+  <si>
+    <t>White Opaline Pineapple Pot</t>
+  </si>
+  <si>
+    <t>Green Opaline Vases White Base</t>
+  </si>
+  <si>
+    <t>Green Bohemian Picture Vase</t>
+  </si>
+  <si>
+    <t>Blue Walnut Pineapple Pot Large</t>
+  </si>
+  <si>
+    <t>Blue Russian Kayseri Gardener Hookah</t>
+  </si>
+  <si>
+    <t>Blue Bohemian Picture Vase</t>
+  </si>
+  <si>
+    <t>Blue Walnut Opaline Gourds</t>
+  </si>
+  <si>
+    <t>Blue Walnut Opaline Pineapple Pot</t>
+  </si>
+  <si>
+    <t>Blue Walnut Masatir Parvatania Shim</t>
+  </si>
+  <si>
+    <t>Blue Plate and Bowl 2 Piece Set</t>
+  </si>
+  <si>
+    <t>Blue Ottoman Sirma</t>
+  </si>
+  <si>
+    <t>Jug with saucer pink porcelain</t>
+  </si>
+  <si>
+    <t>Pair of French porcelain pink plates</t>
+  </si>
+  <si>
+    <t>French Limoges rose box with handle</t>
+  </si>
+  <si>
+    <t>Pair of opaline flower vases</t>
+  </si>
+  <si>
+    <t>Pair of medium flower vases</t>
+  </si>
+  <si>
+    <t>Pair of Russian garner flower hookah</t>
+  </si>
+  <si>
+    <t>Russian rose beige hookah</t>
+  </si>
+  <si>
+    <t>Limoges box pink</t>
+  </si>
+  <si>
+    <t>Pineapple pot opaline flower illustrated</t>
+  </si>
+  <si>
+    <t>Three-piece set opaline flower</t>
+  </si>
+  <si>
+    <t>Pair of opaline flower candlesticks</t>
+  </si>
+  <si>
+    <t>2 white Limoges vases</t>
+  </si>
+  <si>
+    <t>Opaline vases with bronze base</t>
+  </si>
+  <si>
+    <t>Opaline vases with a gazelle head</t>
+  </si>
+  <si>
+    <t>Opaline flower pineapple pot</t>
+  </si>
+  <si>
+    <t>Green Ottoman vase</t>
+  </si>
+  <si>
+    <t>2 red Bohemian graffiti</t>
+  </si>
+  <si>
+    <t>2 red Bohemian sprinklers</t>
+  </si>
+  <si>
+    <t>2 Moroccan necklace antique frame in the middle of a black thread</t>
+  </si>
+  <si>
+    <t>2 blue Iranian porcelain pottery vase</t>
+  </si>
+  <si>
+    <t>2 blue and green French mason jars with a picture</t>
+  </si>
+  <si>
+    <t>Bohemian vase transparent decorated</t>
+  </si>
+  <si>
+    <t>Syrian consul wood 5 drawers</t>
+  </si>
+  <si>
+    <t>Ottoman burgundy sirma large size</t>
+  </si>
+  <si>
+    <t>A pair of large navy blue graphite walnuts</t>
+  </si>
+  <si>
+    <t>A pair of French blue lanterns</t>
+  </si>
+  <si>
+    <t>A pair of blue bohemian lanterns</t>
+  </si>
+  <si>
+    <t>A large turquoise bohemian lantern</t>
+  </si>
+  <si>
+    <t>A pair of Czech blue and white step boss walnuts</t>
+  </si>
+  <si>
+    <t>A transparent blue Italian base cup</t>
+  </si>
+  <si>
+    <t>A consul with a Syrian seashell mirror</t>
+  </si>
+  <si>
+    <t>A walnut opaline pictured with a beige vertical brown</t>
+  </si>
+  <si>
+    <t>French illustrated opaline nut</t>
+  </si>
+  <si>
+    <t>Opaline nut illustrated with medium white and yellow roses</t>
+  </si>
+  <si>
+    <t>Opaline single green vase</t>
+  </si>
+  <si>
+    <t>Opaline nut white gilded and green rose</t>
+  </si>
+  <si>
+    <t>Opaline nut yellow rose</t>
+  </si>
+  <si>
+    <t>Opaline nut maroon large illustrated</t>
+  </si>
+  <si>
+    <t>Opaline vase large illustrated and signed</t>
+  </si>
+  <si>
+    <t>3-door wardrobe Syrian Arab workshop Ottoman era seashells age 120 years</t>
+  </si>
+  <si>
+    <t>Moroccan Luban frame with various types of stones large</t>
+  </si>
+  <si>
+    <t>Moroccan Luban frame with various types of stones small</t>
+  </si>
+  <si>
+    <t>Sea lion fang candlestick with silver</t>
+  </si>
+  <si>
+    <t>French Bohemian red box with silver elephant handle</t>
+  </si>
+  <si>
+    <t>Lemon colored graphite nut</t>
+  </si>
+  <si>
+    <t>Green and black opaline walnut</t>
+  </si>
+  <si>
+    <t>3-piece set of parvatin walnuts with a plate</t>
+  </si>
+  <si>
+    <t>Green gilded bohemian box</t>
+  </si>
+  <si>
+    <t>Navy walnuts Oriental vases</t>
+  </si>
+  <si>
+    <t>White transparent opaline cup</t>
+  </si>
+  <si>
+    <t>French navy box illustrated with bronze</t>
+  </si>
+  <si>
+    <t>French Limoges egg walnuts navy with bronze</t>
+  </si>
+  <si>
+    <t>French Limoges navy box</t>
+  </si>
+  <si>
+    <t>3-piece set of meat fat vases</t>
+  </si>
+  <si>
+    <t>Opaline meat fat hookah</t>
+  </si>
+  <si>
+    <t>Small frame colored crystal stones</t>
+  </si>
+  <si>
+    <t>Ancient Syrian mother of pearl two-door cabinet</t>
+  </si>
+  <si>
+    <t>A pair of Indian chairs with bones Maharaja</t>
+  </si>
+  <si>
+    <t>A desk with a chair with a drawer unit ancient Syrian mother of pearl</t>
+  </si>
+  <si>
+    <t>Ancient Iranian wool carpet Hazrat Suleiman</t>
+  </si>
+  <si>
+    <t>Ayat al-Kursi plaque with a reed</t>
+  </si>
+  <si>
+    <t>A manuscript plaque of supplications</t>
+  </si>
+  <si>
+    <t>An Ottoman calligraphy plaque (The head of wisdom is the fear of God) Ottoman calligrapher Rasan</t>
+  </si>
+  <si>
+    <t>A Moroccan wood and brass table</t>
+  </si>
+  <si>
+    <t>A plaque of Hamid al-Ghasi calligraphy</t>
+  </si>
+  <si>
+    <t>A pair of Italian marble columns with bronze</t>
+  </si>
+  <si>
+    <t>A large antique Syrian mother of pearl mirror</t>
+  </si>
+  <si>
+    <t>French bronze camel oriental sculpture</t>
+  </si>
+  <si>
+    <t>Saffron vases with white steppe ut</t>
+  </si>
+  <si>
+    <t>Iranian saffron sprinklers</t>
+  </si>
+  <si>
+    <t>Bohemian box with French bronze</t>
+  </si>
+  <si>
+    <t>Blue lanterns</t>
+  </si>
+  <si>
+    <t>Green vase with gazelle head image</t>
+  </si>
+  <si>
+    <t>3-piece French opaline set for the Islamic market antique</t>
+  </si>
+  <si>
+    <t>Crystal box with bronze</t>
+  </si>
+  <si>
+    <t>Illustrated French bronze box</t>
+  </si>
+  <si>
+    <t>Black Bohemian box with bronze</t>
+  </si>
+  <si>
+    <t>Illustrated black round box</t>
+  </si>
+  <si>
+    <t>Old Syrian display cabinet mother of pearl</t>
+  </si>
+  <si>
+    <t>Illustrated silk wool carpet walnut / 2</t>
+  </si>
+  <si>
+    <t>2 rooster figurines</t>
+  </si>
+  <si>
+    <t>3-piece bronze ballerina set</t>
+  </si>
+  <si>
+    <t>2 porcelain rooster figurines</t>
+  </si>
+  <si>
+    <t>2 white elephant figurines wooden base</t>
+  </si>
+  <si>
+    <t>English porcelain tiger figurines</t>
+  </si>
+  <si>
+    <t>Glass turtle figurines</t>
+  </si>
+  <si>
+    <t>Gemstone elephant figurines (good stone)</t>
+  </si>
+  <si>
+    <t>Turquoise vertical lizard figurines</t>
+  </si>
+  <si>
+    <t>Turquoise horizontal lizard figurines</t>
+  </si>
+  <si>
+    <t>Turquoise crocodile figurines</t>
+  </si>
+  <si>
+    <t>Syrian medium-sized shell mirrors</t>
+  </si>
+  <si>
+    <t>Large frame Moroccan necklace different stones</t>
+  </si>
+  <si>
+    <t>Ottoman Sirma large size silver and silk threads</t>
+  </si>
+  <si>
+    <t>Black Sirmat nuts with golden stripes</t>
+  </si>
+  <si>
+    <t>Syrian seashells</t>
+  </si>
+  <si>
+    <t>Tortoise shell boxes</t>
+  </si>
+  <si>
+    <t>Copper applique nuts</t>
+  </si>
+  <si>
+    <t>Yellow and pink French vases</t>
+  </si>
+  <si>
+    <t>Ottoman Sirma silver frame</t>
+  </si>
+  <si>
+    <t>Moroccan vertical art painting large</t>
+  </si>
+  <si>
+    <t>Moroccan art painting in the middle of a picture of an old man</t>
+  </si>
+  <si>
+    <t>Moroccan art painting in the middle of a picture of a desert</t>
+  </si>
+  <si>
+    <t>Large Moroccan Woman Gold Frame Painting</t>
+  </si>
+  <si>
+    <t>Moroccan Horse Vertical Painting</t>
+  </si>
+  <si>
+    <t>Moroccan Horse Square Painting</t>
+  </si>
+  <si>
+    <t>Arab Bedouin Gold Frame Painting</t>
+  </si>
+  <si>
+    <t>Moroccan Souq Painting</t>
+  </si>
+  <si>
+    <t>Moroccan Woman With Pottery Painting</t>
+  </si>
+  <si>
+    <t>Visit Bird Painting</t>
+  </si>
+  <si>
+    <t>Large Moroccan Belli Painting</t>
+  </si>
+  <si>
+    <t>Moroccan art board Souk Baskalet</t>
+  </si>
+  <si>
+    <t>Moroccan wood and copper table</t>
+  </si>
+  <si>
+    <t>Black frame body art board with silver</t>
+  </si>
+  <si>
+    <t>Colorful Moroccan art board</t>
+  </si>
+  <si>
+    <t>Moroccan art board woman gold frame</t>
+  </si>
+  <si>
+    <t>Peru shell with small mirror</t>
+  </si>
+  <si>
+    <t>European cabinet two doors wood with French picture</t>
+  </si>
+  <si>
+    <t>European cabinet 3 doors English wood</t>
+  </si>
+  <si>
+    <t>4 pieces set white opaline</t>
+  </si>
+  <si>
+    <t>لوحة فنية مغربي سوق بسكاليت</t>
+  </si>
+  <si>
+    <t>Opaline white stainless steel perfume nut, 2 pieces</t>
+  </si>
+  <si>
+    <t>Opaline white lantern, small, single</t>
+  </si>
+  <si>
+    <t>Opaline white lantern, medium, single</t>
+  </si>
+  <si>
+    <t>Decorated white perfume box</t>
+  </si>
+  <si>
+    <t>Decorated white perfume vase</t>
+  </si>
+  <si>
+    <t>Small rose perfume vase</t>
+  </si>
+  <si>
+    <t>Decorated white perfume box with gold</t>
+  </si>
+  <si>
+    <t>Opaline white cup</t>
+  </si>
+  <si>
+    <t>Opaline blue chandelier nut</t>
+  </si>
+  <si>
+    <t>White and blue perfume chandelier</t>
+  </si>
+  <si>
+    <t>White and blue step pot chandelier</t>
+  </si>
+  <si>
+    <t>French brass candlestick with blue picture</t>
+  </si>
+  <si>
+    <t>French pure brass candlestick</t>
+  </si>
+  <si>
+    <t>Indian wooden chair set / 4</t>
+  </si>
+  <si>
+    <t>Silver plated samovar</t>
+  </si>
+  <si>
+    <t>Italian Duke plate / 2</t>
+  </si>
+  <si>
+    <t>Ottoman pink reeded seramah</t>
+  </si>
+  <si>
+    <t>Ancient German amber rosary cut and material</t>
+  </si>
+  <si>
+    <t>German amber rosary cut Polish</t>
+  </si>
+  <si>
+    <t>German amber rosary, large Polish cut</t>
+  </si>
+  <si>
+    <t>Russian amber rosary, Russian raw</t>
+  </si>
+  <si>
+    <t>Polish amber rosary, dotted half by half</t>
+  </si>
+  <si>
+    <t>Tunisian and Moroccan red coral rosary</t>
+  </si>
+  <si>
+    <t>Black coral rosary</t>
+  </si>
+  <si>
+    <t>Turquoise rosary and necklace</t>
+  </si>
+  <si>
+    <t>Coral necklaces</t>
+  </si>
+  <si>
+    <t>Raw amber necklaces</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/179.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/180.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/181.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/182.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/183.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/184.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/185.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/186.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/187.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/188.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/189.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/190.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/191.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/192.jpeg</t>
   </si>
 </sst>
 </file>
@@ -1676,20 +2300,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98041684-60AD-4B6B-B652-1A806A9CDDBF}">
-  <dimension ref="A1:G192"/>
+  <dimension ref="A1:G195"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C179" sqref="C179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.8984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.69921875" style="3" customWidth="1"/>
     <col min="3" max="3" width="34.69921875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="5.8984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.8984375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="68.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.796875" style="3" customWidth="1"/>
     <col min="7" max="7" width="51.69921875" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.796875" style="3"/>
   </cols>
@@ -1722,10 +2346,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D2">
         <v>3000</v>
@@ -1734,7 +2358,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G2" t="s">
         <v>19</v>
@@ -1745,10 +2369,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D3">
         <v>1750</v>
@@ -1757,7 +2381,7 @@
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G3" t="s">
         <v>20</v>
@@ -1768,10 +2392,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D4">
         <v>500</v>
@@ -1780,7 +2404,7 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G4" t="s">
         <v>21</v>
@@ -1791,10 +2415,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D5">
         <v>500</v>
@@ -1803,7 +2427,7 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G5" t="s">
         <v>22</v>
@@ -1814,10 +2438,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D6">
         <v>1500</v>
@@ -1826,7 +2450,7 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G6" t="s">
         <v>23</v>
@@ -1837,10 +2461,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D7">
         <v>800</v>
@@ -1849,7 +2473,7 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G7" t="s">
         <v>24</v>
@@ -1860,10 +2484,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D8">
         <v>1600</v>
@@ -1872,7 +2496,7 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G8" t="s">
         <v>25</v>
@@ -1883,10 +2507,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D9">
         <v>900</v>
@@ -1895,7 +2519,7 @@
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G9" t="s">
         <v>26</v>
@@ -1906,10 +2530,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D10">
         <v>2500</v>
@@ -1918,7 +2542,7 @@
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G10" t="s">
         <v>27</v>
@@ -1929,10 +2553,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D11">
         <v>3000</v>
@@ -1941,7 +2565,7 @@
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G11" t="s">
         <v>28</v>
@@ -1952,10 +2576,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D12">
         <v>1750</v>
@@ -1964,7 +2588,7 @@
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G12" t="s">
         <v>29</v>
@@ -1975,10 +2599,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D13">
         <v>1200</v>
@@ -1987,53 +2611,53 @@
         <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D14">
         <v>1250</v>
       </c>
       <c r="E14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D15">
         <v>500</v>
       </c>
       <c r="E15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G15" t="s">
         <v>32</v>
@@ -2044,42 +2668,42 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D16">
         <v>1500</v>
       </c>
       <c r="E16" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D17">
         <v>1200</v>
       </c>
       <c r="E17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G17" t="s">
         <v>34</v>
@@ -2090,19 +2714,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>430</v>
+        <v>466</v>
       </c>
       <c r="D18">
         <v>1000</v>
       </c>
       <c r="E18" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G18" t="s">
         <v>35</v>
@@ -2113,19 +2737,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>431</v>
+        <v>467</v>
       </c>
       <c r="D19">
         <v>2000</v>
       </c>
       <c r="E19" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G19" t="s">
         <v>36</v>
@@ -2136,19 +2760,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>432</v>
+        <v>468</v>
       </c>
       <c r="D20">
         <v>750</v>
       </c>
       <c r="E20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G20" t="s">
         <v>37</v>
@@ -2159,19 +2783,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>432</v>
+        <v>469</v>
       </c>
       <c r="D21">
         <v>1750</v>
       </c>
       <c r="E21" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G21" t="s">
         <v>38</v>
@@ -2182,19 +2806,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>432</v>
+        <v>470</v>
       </c>
       <c r="D22">
         <v>1400</v>
       </c>
       <c r="E22" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G22" t="s">
         <v>39</v>
@@ -2205,19 +2829,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>432</v>
+        <v>471</v>
       </c>
       <c r="D23">
         <v>700</v>
       </c>
       <c r="E23" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G23" t="s">
         <v>40</v>
@@ -2228,19 +2852,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>432</v>
+        <v>472</v>
       </c>
       <c r="D24">
         <v>2500</v>
       </c>
       <c r="E24" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G24" t="s">
         <v>41</v>
@@ -2251,19 +2875,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>413</v>
+        <v>433</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>432</v>
+        <v>473</v>
       </c>
       <c r="D25">
         <v>1500</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G25" t="s">
         <v>42</v>
@@ -2274,19 +2898,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>413</v>
+        <v>433</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>432</v>
+        <v>473</v>
       </c>
       <c r="D26">
         <v>1500</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G26" t="s">
         <v>42</v>
@@ -2297,19 +2921,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>432</v>
+        <v>474</v>
       </c>
       <c r="D27">
         <v>1200</v>
       </c>
       <c r="E27" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G27" t="s">
         <v>43</v>
@@ -2320,19 +2944,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="D28">
         <v>2500</v>
       </c>
       <c r="E28" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G28" t="s">
         <v>44</v>
@@ -2343,19 +2967,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>432</v>
+        <v>476</v>
       </c>
       <c r="D29">
         <v>3000</v>
       </c>
       <c r="E29" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G29" t="s">
         <v>45</v>
@@ -2366,19 +2990,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>413</v>
+        <v>437</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>432</v>
+        <v>477</v>
       </c>
       <c r="D30">
         <v>1200</v>
       </c>
       <c r="E30" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -2389,19 +3013,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>432</v>
+        <v>478</v>
       </c>
       <c r="D31">
         <v>800</v>
       </c>
       <c r="E31" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G31" t="s">
         <v>47</v>
@@ -2412,19 +3036,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>432</v>
+        <v>479</v>
       </c>
       <c r="D32">
         <v>1200</v>
       </c>
       <c r="E32" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F32" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G32" t="s">
         <v>48</v>
@@ -2435,19 +3059,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>413</v>
+        <v>434</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>432</v>
+        <v>480</v>
       </c>
       <c r="D33">
         <v>3000</v>
       </c>
       <c r="E33" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G33" t="s">
         <v>49</v>
@@ -2458,19 +3082,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>432</v>
+        <v>481</v>
       </c>
       <c r="D34">
         <v>700</v>
       </c>
       <c r="E34" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F34" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G34" t="s">
         <v>50</v>
@@ -2481,19 +3105,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>432</v>
+        <v>482</v>
       </c>
       <c r="D35">
         <v>1000</v>
       </c>
       <c r="E35" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F35" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G35" t="s">
         <v>51</v>
@@ -2504,19 +3128,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>432</v>
+        <v>483</v>
       </c>
       <c r="D36">
         <v>1200</v>
       </c>
       <c r="E36" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G36" t="s">
         <v>52</v>
@@ -2527,19 +3151,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>432</v>
+        <v>484</v>
       </c>
       <c r="D37">
         <v>900</v>
       </c>
       <c r="E37" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G37" t="s">
         <v>53</v>
@@ -2550,19 +3174,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>413</v>
+        <v>433</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>432</v>
+        <v>485</v>
       </c>
       <c r="D38">
         <v>1500</v>
       </c>
       <c r="E38" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G38" t="s">
         <v>54</v>
@@ -2573,19 +3197,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>413</v>
+        <v>433</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>432</v>
+        <v>486</v>
       </c>
       <c r="D39">
         <v>1500</v>
       </c>
       <c r="E39" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G39" t="s">
         <v>55</v>
@@ -2596,19 +3220,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>432</v>
+        <v>487</v>
       </c>
       <c r="D40">
         <v>1200</v>
       </c>
       <c r="E40" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F40" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G40" t="s">
         <v>56</v>
@@ -2619,19 +3243,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>432</v>
+        <v>488</v>
       </c>
       <c r="D41">
         <v>2500</v>
       </c>
       <c r="E41" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F41" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G41" t="s">
         <v>57</v>
@@ -2642,42 +3266,42 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>413</v>
+        <v>435</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>432</v>
+        <v>489</v>
       </c>
       <c r="D42">
         <v>2400</v>
       </c>
       <c r="E42" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F42" t="s">
-        <v>214</v>
+        <v>438</v>
       </c>
       <c r="G42" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>413</v>
+        <v>436</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>432</v>
+        <v>490</v>
       </c>
       <c r="D43">
         <v>1200</v>
       </c>
       <c r="E43" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F43" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G43" t="s">
         <v>59</v>
@@ -2688,19 +3312,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>432</v>
+        <v>491</v>
       </c>
       <c r="D44">
         <v>2000</v>
       </c>
       <c r="E44" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G44" t="s">
         <v>60</v>
@@ -2711,19 +3335,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>432</v>
+        <v>492</v>
       </c>
       <c r="D45">
         <v>1200</v>
       </c>
       <c r="E45" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F45" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G45" t="s">
         <v>61</v>
@@ -2734,19 +3358,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>432</v>
+        <v>493</v>
       </c>
       <c r="D46">
         <v>1100</v>
       </c>
       <c r="E46" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F46" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G46" t="s">
         <v>62</v>
@@ -2757,19 +3381,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>413</v>
+        <v>439</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>432</v>
+        <v>494</v>
       </c>
       <c r="D47">
         <v>1200</v>
       </c>
       <c r="E47" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F47" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G47" t="s">
         <v>63</v>
@@ -2780,19 +3404,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>413</v>
+        <v>440</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>432</v>
+        <v>495</v>
       </c>
       <c r="D48">
         <v>1200</v>
       </c>
       <c r="E48" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F48" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G48" t="s">
         <v>64</v>
@@ -2803,19 +3427,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>432</v>
+        <v>496</v>
       </c>
       <c r="D49">
         <v>2000</v>
       </c>
       <c r="E49" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F49" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G49" t="s">
         <v>65</v>
@@ -2826,19 +3450,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>413</v>
+        <v>440</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>432</v>
+        <v>497</v>
       </c>
       <c r="D50">
         <v>400</v>
       </c>
       <c r="E50" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F50" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G50" t="s">
         <v>66</v>
@@ -2849,19 +3473,19 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>413</v>
+        <v>441</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>432</v>
+        <v>497</v>
       </c>
       <c r="D51">
         <v>1200</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F51" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G51" t="s">
         <v>67</v>
@@ -2872,19 +3496,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>413</v>
+        <v>441</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>432</v>
+        <v>498</v>
       </c>
       <c r="D52">
         <v>1200</v>
       </c>
       <c r="E52" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F52" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G52" t="s">
         <v>68</v>
@@ -2895,19 +3519,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>432</v>
+        <v>499</v>
       </c>
       <c r="D53">
         <v>950</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F53" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G53" t="s">
         <v>69</v>
@@ -2918,19 +3542,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>432</v>
+        <v>500</v>
       </c>
       <c r="D54">
         <v>4000</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F54" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G54" t="s">
         <v>70</v>
@@ -2941,19 +3565,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>432</v>
+        <v>501</v>
       </c>
       <c r="D55">
         <v>600</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F55" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G55" t="s">
         <v>71</v>
@@ -2964,19 +3588,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>413</v>
+        <v>442</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>432</v>
+        <v>502</v>
       </c>
       <c r="D56">
         <v>400</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F56" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G56" t="s">
         <v>72</v>
@@ -2987,19 +3611,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>413</v>
+        <v>440</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>432</v>
+        <v>503</v>
       </c>
       <c r="D57">
         <v>4000</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F57" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G57" t="s">
         <v>73</v>
@@ -3010,19 +3634,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>432</v>
+        <v>504</v>
       </c>
       <c r="D58">
         <v>3000</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F58" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G58" t="s">
         <v>74</v>
@@ -3033,19 +3657,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>432</v>
+        <v>505</v>
       </c>
       <c r="D59">
         <v>4500</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F59" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G59" t="s">
         <v>75</v>
@@ -3056,19 +3680,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>432</v>
+        <v>506</v>
       </c>
       <c r="D60">
         <v>900</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F60" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G60" t="s">
         <v>76</v>
@@ -3079,19 +3703,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>432</v>
+        <v>507</v>
       </c>
       <c r="D61">
         <v>1200</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F61" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G61" t="s">
         <v>77</v>
@@ -3102,19 +3726,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>432</v>
+        <v>508</v>
       </c>
       <c r="D62">
         <v>1200</v>
       </c>
       <c r="E62" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F62" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G62" t="s">
         <v>78</v>
@@ -3125,19 +3749,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>413</v>
+        <v>444</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>432</v>
+        <v>509</v>
       </c>
       <c r="D63">
         <v>600</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F63" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G63" t="s">
         <v>79</v>
@@ -3148,19 +3772,19 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>413</v>
+        <v>445</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>432</v>
+        <v>510</v>
       </c>
       <c r="D64">
         <v>4500</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F64" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G64" t="s">
         <v>80</v>
@@ -3171,19 +3795,19 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>432</v>
+        <v>511</v>
       </c>
       <c r="D65">
         <v>850</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F65" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="G65" t="s">
         <v>81</v>
@@ -3194,19 +3818,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>432</v>
+        <v>512</v>
       </c>
       <c r="D66">
         <v>1200</v>
       </c>
       <c r="E66" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F66" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="G66" t="s">
         <v>82</v>
@@ -3217,10 +3841,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>432</v>
+        <v>513</v>
       </c>
       <c r="D67">
         <v>900</v>
@@ -3229,7 +3853,7 @@
         <v>3</v>
       </c>
       <c r="F67" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="G67" t="s">
         <v>83</v>
@@ -3240,19 +3864,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>432</v>
+        <v>514</v>
       </c>
       <c r="D68">
         <v>300</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F68" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="G68" t="s">
         <v>84</v>
@@ -3263,19 +3887,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>432</v>
+        <v>515</v>
       </c>
       <c r="D69">
         <v>1800</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F69" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="G69" t="s">
         <v>85</v>
@@ -3286,19 +3910,19 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>432</v>
+        <v>516</v>
       </c>
       <c r="D70">
         <v>1200</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F70" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="G70" t="s">
         <v>86</v>
@@ -3309,19 +3933,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>432</v>
+        <v>517</v>
       </c>
       <c r="D71">
         <v>1600</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F71" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="G71" t="s">
         <v>87</v>
@@ -3332,19 +3956,19 @@
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>432</v>
+        <v>518</v>
       </c>
       <c r="D72">
         <v>2500</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F72" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G72" t="s">
         <v>88</v>
@@ -3355,19 +3979,19 @@
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>432</v>
+        <v>519</v>
       </c>
       <c r="D73">
         <v>12500</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F73" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G73" t="s">
         <v>89</v>
@@ -3378,19 +4002,19 @@
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>413</v>
+        <v>441</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>432</v>
+        <v>520</v>
       </c>
       <c r="D74">
         <v>1300</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F74" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G74" t="s">
         <v>90</v>
@@ -3401,19 +4025,19 @@
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>413</v>
+        <v>441</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>432</v>
+        <v>521</v>
       </c>
       <c r="D75">
         <v>800</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F75" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G75" t="s">
         <v>91</v>
@@ -3424,19 +4048,19 @@
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>413</v>
+        <v>446</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>432</v>
+        <v>522</v>
       </c>
       <c r="D76">
         <v>750</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F76" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G76" t="s">
         <v>92</v>
@@ -3447,19 +4071,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>432</v>
+        <v>523</v>
       </c>
       <c r="D77">
         <v>750</v>
       </c>
       <c r="E77" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F77" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G77" t="s">
         <v>93</v>
@@ -3470,19 +4094,19 @@
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>432</v>
+        <v>524</v>
       </c>
       <c r="D78">
         <v>2500</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F78" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G78" t="s">
         <v>94</v>
@@ -3493,19 +4117,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>413</v>
+        <v>447</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>432</v>
+        <v>525</v>
       </c>
       <c r="D79">
         <v>1750</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F79" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G79" t="s">
         <v>95</v>
@@ -3516,19 +4140,19 @@
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>413</v>
+        <v>448</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>432</v>
+        <v>526</v>
       </c>
       <c r="D80">
         <v>1400</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F80" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G80" t="s">
         <v>96</v>
@@ -3539,19 +4163,19 @@
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>432</v>
+        <v>527</v>
       </c>
       <c r="D81">
         <v>350</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F81" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G81" t="s">
         <v>97</v>
@@ -3562,19 +4186,19 @@
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>432</v>
+        <v>528</v>
       </c>
       <c r="D82">
         <v>750</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G82" t="s">
         <v>98</v>
@@ -3585,19 +4209,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>413</v>
+        <v>444</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>432</v>
+        <v>529</v>
       </c>
       <c r="D83">
         <v>600</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F83" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G83" t="s">
         <v>99</v>
@@ -3608,19 +4232,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>432</v>
+        <v>530</v>
       </c>
       <c r="D84">
         <v>600</v>
       </c>
       <c r="E84" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F84" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G84" t="s">
         <v>100</v>
@@ -3631,19 +4255,19 @@
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>413</v>
+        <v>449</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>432</v>
+        <v>531</v>
       </c>
       <c r="D85">
         <v>1200</v>
       </c>
       <c r="E85" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F85" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G85" t="s">
         <v>101</v>
@@ -3654,19 +4278,19 @@
         <v>86</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>432</v>
+        <v>532</v>
       </c>
       <c r="D86">
         <v>300</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F86" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G86" t="s">
         <v>102</v>
@@ -3677,19 +4301,19 @@
         <v>85</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>432</v>
+        <v>533</v>
       </c>
       <c r="D87">
         <v>1700</v>
       </c>
       <c r="E87" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F87" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G87" t="s">
         <v>103</v>
@@ -3700,19 +4324,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>413</v>
+        <v>433</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>432</v>
+        <v>534</v>
       </c>
       <c r="D88">
         <v>500</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F88" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G88" t="s">
         <v>104</v>
@@ -3723,19 +4347,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>413</v>
+        <v>441</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>432</v>
+        <v>535</v>
       </c>
       <c r="D89">
         <v>400</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F89" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G89" t="s">
         <v>105</v>
@@ -3746,19 +4370,19 @@
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>413</v>
+        <v>446</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>432</v>
+        <v>536</v>
       </c>
       <c r="D90">
         <v>2750</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F90" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G90" t="s">
         <v>106</v>
@@ -3769,19 +4393,19 @@
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>413</v>
+        <v>450</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>432</v>
+        <v>537</v>
       </c>
       <c r="D91">
         <v>3750</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G91" t="s">
         <v>107</v>
@@ -3792,19 +4416,19 @@
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>413</v>
+        <v>451</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>432</v>
+        <v>538</v>
       </c>
       <c r="D92">
         <v>3500</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F92" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G92" t="s">
         <v>108</v>
@@ -3815,19 +4439,19 @@
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>413</v>
+        <v>452</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>432</v>
+        <v>539</v>
       </c>
       <c r="D93">
         <v>20000</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F93" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G93" t="s">
         <v>109</v>
@@ -3838,19 +4462,19 @@
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>432</v>
+        <v>540</v>
       </c>
       <c r="D94">
         <v>300</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F94" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G94" t="s">
         <v>110</v>
@@ -3861,19 +4485,19 @@
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>432</v>
+        <v>541</v>
       </c>
       <c r="D95">
         <v>2500</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F95" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G95" t="s">
         <v>111</v>
@@ -3884,19 +4508,19 @@
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>432</v>
+        <v>542</v>
       </c>
       <c r="D96">
         <v>3000</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F96" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G96" t="s">
         <v>112</v>
@@ -3907,19 +4531,19 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>413</v>
+        <v>453</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>432</v>
+        <v>543</v>
       </c>
       <c r="D97">
         <v>750</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F97" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G97" t="s">
         <v>113</v>
@@ -3930,19 +4554,19 @@
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>432</v>
+        <v>544</v>
       </c>
       <c r="D98">
         <v>350</v>
       </c>
       <c r="E98" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F98" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G98" t="s">
         <v>114</v>
@@ -3953,19 +4577,19 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>413</v>
+        <v>454</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>432</v>
+        <v>545</v>
       </c>
       <c r="D99">
         <v>4000</v>
       </c>
       <c r="E99" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F99" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G99" t="s">
         <v>115</v>
@@ -3976,19 +4600,19 @@
         <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>413</v>
+        <v>455</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>432</v>
+        <v>546</v>
       </c>
       <c r="D100">
         <v>3500</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F100" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G100" t="s">
         <v>116</v>
@@ -3999,19 +4623,19 @@
         <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>432</v>
+        <v>547</v>
       </c>
       <c r="D101">
         <v>2800</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F101" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G101" t="s">
         <v>117</v>
@@ -4022,19 +4646,19 @@
         <v>101</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>432</v>
+        <v>548</v>
       </c>
       <c r="D102">
         <v>1200</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F102" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G102" t="s">
         <v>118</v>
@@ -4045,19 +4669,19 @@
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>413</v>
+        <v>456</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>432</v>
+        <v>549</v>
       </c>
       <c r="D103">
         <v>300</v>
       </c>
       <c r="E103" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F103" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G103" t="s">
         <v>119</v>
@@ -4068,19 +4692,19 @@
         <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>432</v>
+        <v>550</v>
       </c>
       <c r="D104">
         <v>1200</v>
       </c>
       <c r="E104" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F104" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G104" t="s">
         <v>120</v>
@@ -4091,19 +4715,19 @@
         <v>104</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>413</v>
+        <v>447</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>432</v>
+        <v>551</v>
       </c>
       <c r="D105">
         <v>850</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F105" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G105" t="s">
         <v>121</v>
@@ -4114,19 +4738,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>432</v>
+        <v>552</v>
       </c>
       <c r="D106">
         <v>400</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F106" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G106" t="s">
         <v>122</v>
@@ -4137,19 +4761,19 @@
         <v>106</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>413</v>
+        <v>435</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>432</v>
+        <v>553</v>
       </c>
       <c r="D107">
         <v>2500</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F107" t="s">
-        <v>220</v>
+        <v>457</v>
       </c>
       <c r="G107" t="s">
         <v>123</v>
@@ -4160,19 +4784,19 @@
         <v>107</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>432</v>
+        <v>554</v>
       </c>
       <c r="D108">
         <v>1000</v>
       </c>
       <c r="E108" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F108" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G108" t="s">
         <v>124</v>
@@ -4183,19 +4807,19 @@
         <v>108</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>432</v>
+        <v>555</v>
       </c>
       <c r="D109">
         <v>400</v>
       </c>
       <c r="E109" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F109" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G109" t="s">
         <v>125</v>
@@ -4206,19 +4830,19 @@
         <v>109</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>432</v>
+        <v>556</v>
       </c>
       <c r="D110">
         <v>1200</v>
       </c>
       <c r="E110" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F110" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G110" t="s">
         <v>126</v>
@@ -4229,19 +4853,19 @@
         <v>110</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>432</v>
+        <v>557</v>
       </c>
       <c r="D111">
         <v>600</v>
       </c>
       <c r="E111" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F111" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G111" t="s">
         <v>127</v>
@@ -4252,19 +4876,19 @@
         <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>413</v>
+        <v>446</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>432</v>
+        <v>558</v>
       </c>
       <c r="D112">
         <v>4000</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F112" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G112" t="s">
         <v>128</v>
@@ -4275,19 +4899,19 @@
         <v>112</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>413</v>
+        <v>452</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>432</v>
+        <v>559</v>
       </c>
       <c r="D113">
         <v>3000</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F113" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G113" t="s">
         <v>129</v>
@@ -4298,19 +4922,19 @@
         <v>113</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>413</v>
+        <v>446</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>432</v>
+        <v>560</v>
       </c>
       <c r="D114">
         <v>2000</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F114" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G114" t="s">
         <v>130</v>
@@ -4321,19 +4945,19 @@
         <v>114</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>432</v>
+        <v>561</v>
       </c>
       <c r="D115">
         <v>5000</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F115" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G115" t="s">
         <v>131</v>
@@ -4344,19 +4968,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>432</v>
+        <v>562</v>
       </c>
       <c r="D116">
         <v>2200</v>
       </c>
       <c r="E116" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F116" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G116" t="s">
         <v>132</v>
@@ -4367,19 +4991,19 @@
         <v>116</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>432</v>
+        <v>563</v>
       </c>
       <c r="D117">
         <v>1200</v>
       </c>
       <c r="E117" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F117" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G117" t="s">
         <v>133</v>
@@ -4390,19 +5014,19 @@
         <v>117</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>432</v>
+        <v>564</v>
       </c>
       <c r="D118">
         <v>800</v>
       </c>
       <c r="E118" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F118" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G118" t="s">
         <v>134</v>
@@ -4413,19 +5037,19 @@
         <v>118</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>432</v>
+        <v>565</v>
       </c>
       <c r="D119">
         <v>250</v>
       </c>
       <c r="E119" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F119" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G119" t="s">
         <v>135</v>
@@ -4436,19 +5060,19 @@
         <v>119</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>432</v>
+        <v>566</v>
       </c>
       <c r="D120">
         <v>2500</v>
       </c>
       <c r="E120" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F120" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G120" t="s">
         <v>136</v>
@@ -4459,19 +5083,19 @@
         <v>120</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>432</v>
+        <v>567</v>
       </c>
       <c r="D121">
         <v>800</v>
       </c>
       <c r="E121" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F121" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G121" t="s">
         <v>137</v>
@@ -4482,19 +5106,19 @@
         <v>121</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>432</v>
+        <v>568</v>
       </c>
       <c r="D122">
         <v>800</v>
       </c>
       <c r="E122" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F122" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G122" t="s">
         <v>138</v>
@@ -4505,19 +5129,19 @@
         <v>122</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>432</v>
+        <v>569</v>
       </c>
       <c r="D123">
         <v>500</v>
       </c>
       <c r="E123" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F123" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G123" t="s">
         <v>139</v>
@@ -4528,19 +5152,19 @@
         <v>123</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>413</v>
+        <v>455</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>432</v>
+        <v>570</v>
       </c>
       <c r="D124">
         <v>2000</v>
       </c>
       <c r="E124" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F124" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G124" t="s">
         <v>140</v>
@@ -4551,19 +5175,19 @@
         <v>124</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>413</v>
+        <v>441</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>432</v>
+        <v>571</v>
       </c>
       <c r="D125">
         <v>1200</v>
       </c>
       <c r="E125" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F125" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G125" t="s">
         <v>141</v>
@@ -4574,19 +5198,19 @@
         <v>125</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>413</v>
+        <v>440</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>432</v>
+        <v>572</v>
       </c>
       <c r="D126">
         <v>5000</v>
       </c>
       <c r="E126" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F126" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G126" t="s">
         <v>142</v>
@@ -4597,19 +5221,19 @@
         <v>126</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>413</v>
+        <v>440</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>432</v>
+        <v>573</v>
       </c>
       <c r="D127">
         <v>2000</v>
       </c>
       <c r="E127" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F127" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G127" t="s">
         <v>143</v>
@@ -4620,19 +5244,19 @@
         <v>127</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>432</v>
+        <v>574</v>
       </c>
       <c r="D128">
         <v>1500</v>
       </c>
       <c r="E128" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F128" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G128" t="s">
         <v>144</v>
@@ -4643,19 +5267,19 @@
         <v>128</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>432</v>
+        <v>575</v>
       </c>
       <c r="D129">
         <v>6000</v>
       </c>
       <c r="E129" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F129" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G129" t="s">
         <v>145</v>
@@ -4666,19 +5290,19 @@
         <v>129</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>413</v>
+        <v>447</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>432</v>
+        <v>576</v>
       </c>
       <c r="D130">
         <v>300</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F130" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G130" t="s">
         <v>146</v>
@@ -4689,19 +5313,19 @@
         <v>130</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>432</v>
+        <v>577</v>
       </c>
       <c r="D131">
         <v>800</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F131" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G131" t="s">
         <v>147</v>
@@ -4712,19 +5336,19 @@
         <v>131</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>413</v>
+        <v>440</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>432</v>
+        <v>578</v>
       </c>
       <c r="D132">
         <v>3000</v>
       </c>
       <c r="E132" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F132" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G132" t="s">
         <v>148</v>
@@ -4735,19 +5359,19 @@
         <v>132</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>432</v>
+        <v>579</v>
       </c>
       <c r="D133">
         <v>700</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F133" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G133" t="s">
         <v>149</v>
@@ -4758,19 +5382,19 @@
         <v>133</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>432</v>
+        <v>579</v>
       </c>
       <c r="D134">
         <v>700</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F134" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G134" t="s">
         <v>149</v>
@@ -4781,19 +5405,19 @@
         <v>134</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>432</v>
+        <v>579</v>
       </c>
       <c r="D135">
         <v>700</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F135" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G135" t="s">
         <v>149</v>
@@ -4804,19 +5428,19 @@
         <v>135</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>432</v>
+        <v>579</v>
       </c>
       <c r="D136">
         <v>700</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F136" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G136" t="s">
         <v>149</v>
@@ -4827,19 +5451,19 @@
         <v>136</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>432</v>
+        <v>579</v>
       </c>
       <c r="D137">
         <v>700</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F137" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G137" t="s">
         <v>149</v>
@@ -4850,19 +5474,19 @@
         <v>137</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>432</v>
+        <v>579</v>
       </c>
       <c r="D138">
         <v>900</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F138" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G138" t="s">
         <v>150</v>
@@ -4873,19 +5497,19 @@
         <v>138</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>432</v>
+        <v>579</v>
       </c>
       <c r="D139">
         <v>700</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F139" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G139" t="s">
         <v>151</v>
@@ -4896,19 +5520,19 @@
         <v>139</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>432</v>
+        <v>579</v>
       </c>
       <c r="D140">
         <v>700</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F140" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G140" t="s">
         <v>151</v>
@@ -4919,19 +5543,19 @@
         <v>140</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>432</v>
+        <v>580</v>
       </c>
       <c r="D141">
         <v>700</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F141" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G141" t="s">
         <v>152</v>
@@ -4942,19 +5566,19 @@
         <v>141</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>432</v>
+        <v>581</v>
       </c>
       <c r="D142">
         <v>700</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F142" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G142" t="s">
         <v>153</v>
@@ -4965,19 +5589,19 @@
         <v>142</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>432</v>
+        <v>581</v>
       </c>
       <c r="D143">
         <v>700</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F143" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G143" t="s">
         <v>153</v>
@@ -4988,19 +5612,19 @@
         <v>143</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>432</v>
+        <v>582</v>
       </c>
       <c r="D144">
         <v>1400</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F144" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G144" t="s">
         <v>154</v>
@@ -5011,19 +5635,19 @@
         <v>144</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>432</v>
+        <v>583</v>
       </c>
       <c r="D145">
         <v>700</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F145" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G145" t="s">
         <v>155</v>
@@ -5034,19 +5658,19 @@
         <v>145</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>432</v>
+        <v>583</v>
       </c>
       <c r="D146">
         <v>700</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F146" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G146" t="s">
         <v>155</v>
@@ -5057,19 +5681,19 @@
         <v>146</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>432</v>
+        <v>583</v>
       </c>
       <c r="D147">
         <v>700</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F147" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G147" t="s">
         <v>155</v>
@@ -5080,19 +5704,19 @@
         <v>147</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>432</v>
+        <v>583</v>
       </c>
       <c r="D148">
         <v>700</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F148" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G148" t="s">
         <v>156</v>
@@ -5103,19 +5727,19 @@
         <v>148</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>432</v>
+        <v>583</v>
       </c>
       <c r="D149">
         <v>700</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F149" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G149" t="s">
         <v>155</v>
@@ -5126,19 +5750,19 @@
         <v>149</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>432</v>
+        <v>584</v>
       </c>
       <c r="D150">
         <v>500</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F150" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G150" t="s">
         <v>157</v>
@@ -5149,19 +5773,19 @@
         <v>150</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>432</v>
+        <v>583</v>
       </c>
       <c r="D151">
         <v>800</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F151" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G151" t="s">
         <v>158</v>
@@ -5172,19 +5796,19 @@
         <v>151</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>432</v>
+        <v>585</v>
       </c>
       <c r="D152">
         <v>800</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F152" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G152" t="s">
         <v>159</v>
@@ -5195,19 +5819,19 @@
         <v>152</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>432</v>
+        <v>586</v>
       </c>
       <c r="D153">
         <v>350</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F153" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G153" t="s">
         <v>160</v>
@@ -5218,19 +5842,19 @@
         <v>153</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>432</v>
+        <v>587</v>
       </c>
       <c r="D154">
         <v>2500</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F154" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G154" t="s">
         <v>161</v>
@@ -5241,19 +5865,19 @@
         <v>154</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>432</v>
+        <v>588</v>
       </c>
       <c r="D155">
         <v>600</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F155" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G155" t="s">
         <v>162</v>
@@ -5264,19 +5888,19 @@
         <v>155</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>432</v>
+        <v>589</v>
       </c>
       <c r="D156">
         <v>700</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F156" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G156" t="s">
         <v>163</v>
@@ -5287,22 +5911,22 @@
         <v>156</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>432</v>
+        <v>590</v>
       </c>
       <c r="D157">
         <v>700</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F157" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G157" t="s">
-        <v>164</v>
+        <v>599</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -5310,19 +5934,19 @@
         <v>157</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>413</v>
+        <v>453</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>432</v>
+        <v>591</v>
       </c>
       <c r="D158">
         <v>750</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F158" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="G158" t="s">
         <v>113</v>
@@ -5333,22 +5957,22 @@
         <v>158</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>413</v>
+        <v>459</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>432</v>
+        <v>592</v>
       </c>
       <c r="D159">
         <v>1200</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F159" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G159" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -5356,22 +5980,22 @@
         <v>159</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>413</v>
+        <v>459</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>432</v>
+        <v>593</v>
       </c>
       <c r="D160">
         <v>600</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F160" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G160" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -5379,22 +6003,22 @@
         <v>160</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>413</v>
+        <v>459</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>432</v>
+        <v>594</v>
       </c>
       <c r="D161">
         <v>750</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G161" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -5402,22 +6026,22 @@
         <v>161</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>413</v>
+        <v>460</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>432</v>
+        <v>595</v>
       </c>
       <c r="D162">
         <v>800</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F162" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G162" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -5425,22 +6049,22 @@
         <v>162</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>413</v>
+        <v>446</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>432</v>
+        <v>596</v>
       </c>
       <c r="D163">
         <v>1500</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F163" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G163" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -5448,22 +6072,22 @@
         <v>163</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>413</v>
+        <v>446</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>432</v>
+        <v>597</v>
       </c>
       <c r="D164">
         <v>1200</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F164" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G164" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -5471,45 +6095,45 @@
         <v>164</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>413</v>
+        <v>447</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>432</v>
+        <v>598</v>
       </c>
       <c r="D165">
         <v>1500</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F165" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G165" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>165</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>413</v>
+        <v>461</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>432</v>
+        <v>600</v>
       </c>
       <c r="D166">
         <v>300</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F166" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G166" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -5517,22 +6141,22 @@
         <v>166</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>432</v>
+        <v>601</v>
       </c>
       <c r="D167">
         <v>400</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F167" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G167" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -5540,22 +6164,22 @@
         <v>167</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>432</v>
+        <v>602</v>
       </c>
       <c r="D168">
         <v>500</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F168" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G168" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -5563,22 +6187,22 @@
         <v>168</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>413</v>
+        <v>462</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>432</v>
+        <v>603</v>
       </c>
       <c r="D169">
         <v>300</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F169" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G169" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -5586,22 +6210,22 @@
         <v>169</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>432</v>
+        <v>604</v>
       </c>
       <c r="D170">
         <v>400</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F170" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G170" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -5609,22 +6233,22 @@
         <v>170</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>432</v>
+        <v>605</v>
       </c>
       <c r="D171">
         <v>150</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F171" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G171" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -5632,22 +6256,22 @@
         <v>171</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>413</v>
+        <v>462</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>432</v>
+        <v>606</v>
       </c>
       <c r="D172">
         <v>150</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F172" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G172" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -5655,22 +6279,22 @@
         <v>172</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>413</v>
+        <v>444</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>432</v>
+        <v>607</v>
       </c>
       <c r="D173">
         <v>100</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F173" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G173" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -5678,22 +6302,22 @@
         <v>173</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>413</v>
+        <v>463</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>432</v>
+        <v>608</v>
       </c>
       <c r="D174">
         <v>4000</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F174" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G174" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -5701,22 +6325,22 @@
         <v>174</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>413</v>
+        <v>463</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>432</v>
+        <v>609</v>
       </c>
       <c r="D175">
         <v>1500</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F175" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G175" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -5724,68 +6348,68 @@
         <v>175</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>413</v>
+        <v>463</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>432</v>
+        <v>610</v>
       </c>
       <c r="D176">
         <v>2500</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F176" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G176" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>176</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>413</v>
+        <v>436</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>432</v>
+        <v>611</v>
       </c>
       <c r="D177">
         <v>500</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F177" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G177" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>177</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>413</v>
+        <v>436</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>432</v>
+        <v>612</v>
       </c>
       <c r="D178">
         <v>300</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F178" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G178" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -5793,22 +6417,22 @@
         <v>178</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>413</v>
+        <v>450</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>432</v>
+        <v>613</v>
       </c>
       <c r="D179">
         <v>1200</v>
       </c>
-      <c r="E179" t="s">
-        <v>3</v>
+      <c r="E179" s="1" t="s">
+        <v>627</v>
       </c>
       <c r="F179" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G179" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -5816,22 +6440,22 @@
         <v>179</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>413</v>
+        <v>464</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>432</v>
+        <v>614</v>
       </c>
       <c r="D180">
         <v>500</v>
       </c>
-      <c r="E180" t="s">
-        <v>3</v>
+      <c r="E180" s="1" t="s">
+        <v>628</v>
       </c>
       <c r="F180" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G180" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -5839,22 +6463,22 @@
         <v>180</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>432</v>
+        <v>615</v>
       </c>
       <c r="D181">
         <v>2300</v>
       </c>
-      <c r="E181" t="s">
-        <v>3</v>
+      <c r="E181" s="1" t="s">
+        <v>629</v>
       </c>
       <c r="F181" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G181" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -5862,253 +6486,262 @@
         <v>181</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>432</v>
+        <v>616</v>
       </c>
       <c r="D182">
         <v>1400</v>
       </c>
-      <c r="E182" t="s">
-        <v>3</v>
+      <c r="E182" s="1" t="s">
+        <v>630</v>
       </c>
       <c r="F182" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G182" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>182</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>413</v>
+        <v>465</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>432</v>
+        <v>617</v>
       </c>
       <c r="D183" t="s">
-        <v>242</v>
-      </c>
-      <c r="E183" t="s">
-        <v>3</v>
+        <v>240</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>631</v>
       </c>
       <c r="F183" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G183" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>183</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>413</v>
+        <v>465</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>432</v>
+        <v>618</v>
       </c>
       <c r="D184" t="s">
-        <v>243</v>
-      </c>
-      <c r="E184" t="s">
-        <v>3</v>
+        <v>241</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>632</v>
       </c>
       <c r="F184" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G184" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>184</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>413</v>
+        <v>465</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>432</v>
+        <v>619</v>
       </c>
       <c r="D185" s="3">
         <v>1</v>
       </c>
-      <c r="E185" t="s">
-        <v>3</v>
+      <c r="E185" s="1" t="s">
+        <v>633</v>
       </c>
       <c r="F185" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G185" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>185</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>413</v>
+        <v>465</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>432</v>
+        <v>620</v>
       </c>
       <c r="D186" s="3">
         <v>1</v>
       </c>
-      <c r="E186" t="s">
-        <v>3</v>
+      <c r="E186" s="1" t="s">
+        <v>634</v>
       </c>
       <c r="F186" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G186" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>186</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>413</v>
+        <v>465</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>432</v>
+        <v>621</v>
       </c>
       <c r="D187" s="3">
         <v>1</v>
       </c>
-      <c r="E187" t="s">
-        <v>3</v>
+      <c r="E187" s="1" t="s">
+        <v>635</v>
       </c>
       <c r="F187" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G187" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>187</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>413</v>
+        <v>465</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>432</v>
+        <v>622</v>
       </c>
       <c r="D188" s="3">
         <v>1</v>
       </c>
-      <c r="E188" t="s">
-        <v>3</v>
+      <c r="E188" s="1" t="s">
+        <v>636</v>
       </c>
       <c r="F188" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G188" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>188</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>413</v>
+        <v>465</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>432</v>
+        <v>623</v>
       </c>
       <c r="D189" s="3">
         <v>1</v>
       </c>
-      <c r="E189" t="s">
-        <v>3</v>
+      <c r="E189" s="1" t="s">
+        <v>637</v>
       </c>
       <c r="F189" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G189" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>189</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>413</v>
+        <v>465</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>432</v>
+        <v>624</v>
       </c>
       <c r="D190" s="3">
         <v>1</v>
       </c>
-      <c r="E190" t="s">
-        <v>3</v>
+      <c r="E190" s="1" t="s">
+        <v>638</v>
       </c>
       <c r="F190" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G190" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>190</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>413</v>
+        <v>465</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>432</v>
+        <v>625</v>
       </c>
       <c r="D191" s="3">
         <v>1</v>
       </c>
-      <c r="E191" t="s">
-        <v>3</v>
+      <c r="E191" s="1" t="s">
+        <v>639</v>
       </c>
       <c r="F191" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G191" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>191</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>413</v>
+        <v>465</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>432</v>
+        <v>626</v>
       </c>
       <c r="D192" s="3">
         <v>1</v>
       </c>
-      <c r="E192" t="s">
-        <v>3</v>
+      <c r="E192" s="1" t="s">
+        <v>640</v>
       </c>
       <c r="F192" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G192" t="s">
-        <v>198</v>
-      </c>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B193" s="4"/>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B194" s="4"/>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B195" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -6201,6 +6834,20 @@
     <hyperlink ref="E58" r:id="rId86" xr:uid="{862616CF-DC50-4252-A2A5-6C2A8F0D492C}"/>
     <hyperlink ref="E2" r:id="rId87" xr:uid="{25368976-30AE-4ECC-9DB6-21DA8763251B}"/>
     <hyperlink ref="E67" r:id="rId88" xr:uid="{81E68051-B3CA-4200-8958-B872A6170A2B}"/>
+    <hyperlink ref="E179" r:id="rId89" xr:uid="{7CF036D5-67DF-41BA-98A1-AEDBC49EB72B}"/>
+    <hyperlink ref="E180" r:id="rId90" xr:uid="{412F2EA4-2FB8-4051-885B-2F397F55D297}"/>
+    <hyperlink ref="E181" r:id="rId91" xr:uid="{12E3E6DB-3A38-482A-982A-445A23E5AFD8}"/>
+    <hyperlink ref="E182" r:id="rId92" xr:uid="{C8599419-DA6E-41D3-906B-3435D7A96A74}"/>
+    <hyperlink ref="E183" r:id="rId93" xr:uid="{502D6EEA-4D5E-4839-8A56-DEA8D357B77D}"/>
+    <hyperlink ref="E184" r:id="rId94" xr:uid="{824213CB-2ACD-4390-B1D4-D1A2A2A3835A}"/>
+    <hyperlink ref="E185" r:id="rId95" xr:uid="{40DDCF2D-C69A-405D-A087-C990A148A15C}"/>
+    <hyperlink ref="E186" r:id="rId96" xr:uid="{6E3A694F-0939-492C-8AB5-CF313A97A946}"/>
+    <hyperlink ref="E187" r:id="rId97" xr:uid="{F4F2B958-D3F8-4899-988A-67C1AB5205BC}"/>
+    <hyperlink ref="E188" r:id="rId98" xr:uid="{80782243-3334-4C34-BDB8-026447ECC239}"/>
+    <hyperlink ref="E189" r:id="rId99" xr:uid="{A452E1CF-7D32-41A6-9665-66B81DE27499}"/>
+    <hyperlink ref="E190" r:id="rId100" xr:uid="{6CEDFEB8-CB83-4F0D-B2AD-21BBDD9B0F4B}"/>
+    <hyperlink ref="E191" r:id="rId101" xr:uid="{702633F9-C26A-4C65-A831-34A29E588A8F}"/>
+    <hyperlink ref="E192" r:id="rId102" xr:uid="{B084A9DB-733F-4574-869D-381AF6925138}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
